--- a/realme/April/Others/Entry_Imei-List - April.xlsx
+++ b/realme/April/Others/Entry_Imei-List - April.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,13 @@
     <sheet name="28" sheetId="28" r:id="rId28"/>
     <sheet name="29" sheetId="29" r:id="rId29"/>
     <sheet name="30" sheetId="30" r:id="rId30"/>
-    <sheet name="31" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="78">
   <si>
     <t>Retail Name</t>
   </si>
@@ -266,6 +265,18 @@
   </si>
   <si>
     <t>not ok</t>
+  </si>
+  <si>
+    <t>Bina Moible</t>
+  </si>
+  <si>
+    <t>Rose Mobile</t>
+  </si>
+  <si>
+    <t>Zam Multi Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -664,7 +675,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1615,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H13" sqref="G12:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2054,53 +2065,101 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5">
+        <v>864997052702596</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5">
+        <v>864997052702810</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5">
+        <v>864997052738038</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="5">
+        <v>864997052735752</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="5">
+        <v>864997052739754</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868529042139971</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="5">
+        <v>864997052697812</v>
+      </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="5">
+        <v>864997052699719</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7">
@@ -2173,7 +2232,9 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
       <c r="G50" s="9"/>
@@ -2733,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3618,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20434,7 +20495,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21357,7 +21418,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22237,897 +22298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25004,8 +24180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26265,7 +25441,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C31" sqref="C31:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27417,7 +26593,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28422,7 +27598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/realme/April/Others/Entry_Imei-List - April.xlsx
+++ b/realme/April/Others/Entry_Imei-List - April.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="91">
   <si>
     <t>Retail Name</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Momtaj Teleocm</t>
   </si>
   <si>
-    <t>MK Telecom</t>
-  </si>
-  <si>
     <t>Not OK</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
   </si>
   <si>
     <t>Molla Mobile</t>
-  </si>
-  <si>
-    <t>Sikreeti Times</t>
   </si>
   <si>
     <t>Siddik Telecom</t>
@@ -300,9 +294,6 @@
     <t>Nabinogor Somobai</t>
   </si>
   <si>
-    <t>Motiur Telecom</t>
-  </si>
-  <si>
     <t>Deepto</t>
   </si>
   <si>
@@ -322,6 +313,9 @@
   </si>
   <si>
     <t xml:space="preserve">Galaxy Mobile </t>
+  </si>
+  <si>
+    <t>customer</t>
   </si>
 </sst>
 </file>
@@ -343,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,6 +436,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +754,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1751,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>40</v>
@@ -1754,7 +1763,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>40</v>
@@ -1766,10 +1775,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="5">
         <v>863726050415518</v>
@@ -1778,7 +1787,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -1801,7 +1810,7 @@
         <v>862539044728255</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,7 +1824,7 @@
         <v>862539044336075</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,7 +1838,7 @@
         <v>863726050415351</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,7 +1852,7 @@
         <v>863726050415559</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,7 +1866,7 @@
         <v>867872050057318</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,7 +1880,7 @@
         <v>864997052738038</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,7 +1894,7 @@
         <v>864997052735752</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,7 +1908,7 @@
         <v>864997052739754</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,7 +1922,7 @@
         <v>868529042139971</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,12 +1936,12 @@
         <v>864997052698975</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -1940,23 +1949,27 @@
       <c r="C17" s="5">
         <v>864997052702695</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5">
         <v>863726050415195</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -1964,7 +1977,9 @@
       <c r="C19" s="5">
         <v>862539044783177</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2033,12 +2048,12 @@
         <v>863726050369712</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>40</v>
@@ -2052,7 +2067,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>40</v>
@@ -2067,7 +2082,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -2118,7 +2133,9 @@
       <c r="C30" s="5">
         <v>862539044347296</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2131,7 +2148,7 @@
         <v>863726050369814</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -2146,7 +2163,7 @@
         <v>863726050369350</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="9"/>
     </row>
@@ -2161,7 +2178,7 @@
         <v>867872050067150</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2175,7 +2192,7 @@
         <v>867872050069438</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,7 +2206,7 @@
         <v>861627041639277</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,7 +2220,7 @@
         <v>861627040586057</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,7 +2234,7 @@
         <v>862539044280919</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,7 +2248,7 @@
         <v>862539044347536</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2245,7 +2262,7 @@
         <v>868529042623214</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2259,7 +2276,7 @@
         <v>868529042623032</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2273,7 +2290,7 @@
         <v>864997052702190</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -2288,7 +2305,7 @@
         <v>864997052702851</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="9"/>
     </row>
@@ -2303,7 +2320,7 @@
         <v>864997052704618</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,7 +2334,7 @@
         <v>864997052703370</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2331,12 +2348,12 @@
         <v>864997052702513</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
@@ -2345,7 +2362,7 @@
         <v>864997052699719</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2359,7 +2376,7 @@
         <v>864997052700475</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,7 +2390,7 @@
         <v>864997052739499</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,7 +2404,7 @@
         <v>864997052702992</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,7 +2418,7 @@
         <v>86499705269951</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="9"/>
     </row>
@@ -2416,7 +2433,7 @@
         <v>864997052698711</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="9"/>
     </row>
@@ -2431,7 +2448,7 @@
         <v>867872050050776</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2445,7 +2462,7 @@
         <v>863726050415732</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2459,7 +2476,7 @@
         <v>868529042653054</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="9"/>
     </row>
@@ -2474,7 +2491,7 @@
         <v>863726050413596</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="9"/>
     </row>
@@ -3003,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,7 +3052,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -3049,7 +3066,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -3063,7 +3080,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
@@ -3183,7 +3200,9 @@
       <c r="C12" s="5">
         <v>863726050369699</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3195,7 +3214,9 @@
       <c r="C13" s="5">
         <v>863726050368998</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3241,7 +3262,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -3255,7 +3276,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>40</v>
@@ -3269,7 +3290,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>40</v>
@@ -3283,7 +3304,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -3297,7 +3318,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
@@ -3311,7 +3332,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -3325,7 +3346,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -3339,7 +3360,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -3353,7 +3374,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
@@ -3367,7 +3388,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
@@ -3390,7 +3411,9 @@
       <c r="C27" s="5">
         <v>862539044347478</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3402,7 +3425,9 @@
       <c r="C28" s="5">
         <v>862539044347254</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -3414,7 +3439,9 @@
       <c r="C29" s="5">
         <v>862539044781270</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3427,7 +3454,9 @@
       <c r="C30" s="5">
         <v>864997052739556</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -3439,7 +3468,9 @@
       <c r="C31" s="5">
         <v>864997052702737</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3452,7 +3483,9 @@
       <c r="C32" s="5">
         <v>868529042645779</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,7 +3498,9 @@
       <c r="C33" s="5">
         <v>861627040727313</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3477,19 +3512,23 @@
       <c r="C34" s="5">
         <v>863726050414412</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5">
         <v>867872050061872</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -3543,7 +3582,9 @@
       <c r="C39" s="5">
         <v>864997052713494</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -3555,7 +3596,9 @@
       <c r="C40" s="5">
         <v>868529042655950</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -3567,7 +3610,9 @@
       <c r="C41" s="5">
         <v>868529041746495</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3580,7 +3625,9 @@
       <c r="C42" s="5">
         <v>864997052717354</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,7 +3646,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>4</v>
@@ -3613,7 +3660,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>11</v>
@@ -3627,7 +3674,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
@@ -3641,7 +3688,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>40</v>
@@ -4277,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,7 +4378,9 @@
       <c r="C3" s="5">
         <v>861627040510792</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -4343,7 +4392,9 @@
       <c r="C4" s="15">
         <v>862539044804874</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4355,7 +4406,9 @@
       <c r="C5" s="15">
         <v>864997052699370</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -4367,7 +4420,9 @@
       <c r="C6" s="15">
         <v>868529042623073</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4413,7 +4468,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
@@ -4421,11 +4476,13 @@
       <c r="C10" s="5">
         <v>864997052700418</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
@@ -4433,11 +4490,13 @@
       <c r="C11" s="5">
         <v>864997052712538</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
@@ -4445,11 +4504,13 @@
       <c r="C12" s="5">
         <v>862539044783771</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -4457,11 +4518,13 @@
       <c r="C13" s="5">
         <v>862539044799298</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -4469,11 +4532,13 @@
       <c r="C14" s="5">
         <v>862539044803298</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -4481,11 +4546,13 @@
       <c r="C15" s="5">
         <v>868529041805218</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -4493,11 +4560,13 @@
       <c r="C16" s="5">
         <v>868529042645050</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -4505,7 +4574,9 @@
       <c r="C17" s="5">
         <v>861627041640457</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -4559,7 +4630,9 @@
       <c r="C21" s="5">
         <v>868529041692939</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4591,7 +4664,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
@@ -5347,8 +5420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,7 +5452,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
@@ -5393,7 +5466,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>39</v>
@@ -5454,7 +5527,7 @@
         <v>862539045004599</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5468,7 +5541,7 @@
         <v>869092050277356</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5482,7 +5555,7 @@
         <v>869092050277737</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5496,7 +5569,7 @@
         <v>869092050277794</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5510,7 +5583,7 @@
         <v>869092050277679</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5524,7 +5597,7 @@
         <v>868529042326552</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5538,7 +5611,7 @@
         <v>869092050277133</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5552,7 +5625,7 @@
         <v>869092050273397</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,7 +5638,9 @@
       <c r="C15" s="15">
         <v>869092050281051</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -5577,7 +5652,9 @@
       <c r="C16" s="15">
         <v>868529042632694</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -5589,7 +5666,9 @@
       <c r="C17" s="15">
         <v>868529041805358</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -5601,7 +5680,9 @@
       <c r="C18" s="15">
         <v>869092050281234</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -5661,7 +5742,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>39</v>
@@ -5675,7 +5756,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>39</v>
@@ -5689,7 +5770,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>39</v>
@@ -5703,7 +5784,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
@@ -5718,10 +5799,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5">
         <v>867872050172893</v>
@@ -5740,7 +5821,9 @@
       <c r="C28" s="5">
         <v>869092050279212</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -5752,7 +5835,9 @@
       <c r="C29" s="5">
         <v>869092050278735</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5765,7 +5850,9 @@
       <c r="C30" s="5">
         <v>869092050278792</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -5777,7 +5864,9 @@
       <c r="C31" s="5">
         <v>868529041747139</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5862,7 +5951,7 @@
         <v>869092050278297</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5875,7 +5964,9 @@
       <c r="C38" s="5">
         <v>868529042623776</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -5907,7 +5998,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>39</v>
@@ -5915,12 +6006,14 @@
       <c r="C41" s="5">
         <v>869092050281432</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>39</v>
@@ -5935,7 +6028,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>39</v>
@@ -5943,11 +6036,13 @@
       <c r="C43" s="5">
         <v>869092050277570</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>39</v>
@@ -5955,11 +6050,13 @@
       <c r="C44" s="5">
         <v>869092050277158</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>12</v>
@@ -5967,11 +6064,13 @@
       <c r="C45" s="8">
         <v>868529042647395</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>12</v>
@@ -5979,7 +6078,9 @@
       <c r="C46" s="5">
         <v>868529041746453</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -5992,7 +6093,7 @@
         <v>869092050278016</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6006,7 +6107,7 @@
         <v>869092050278834</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6020,7 +6121,7 @@
         <v>869092050276473</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6033,7 +6134,9 @@
       <c r="C50" s="5">
         <v>862539045003013</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6046,7 +6149,9 @@
       <c r="C51" s="5">
         <v>869092050278875</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6059,7 +6164,9 @@
       <c r="C52" s="5">
         <v>869092050279139</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -6131,7 +6238,7 @@
         <v>868529042653575</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="9"/>
     </row>
@@ -6146,13 +6253,13 @@
         <v>868529042647692</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>9</v>
@@ -6161,13 +6268,13 @@
         <v>861627041661016</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>39</v>
@@ -6182,7 +6289,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>39</v>
@@ -6197,7 +6304,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>12</v>
@@ -6206,13 +6313,13 @@
         <v>868529042623578</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>9</v>
@@ -6221,7 +6328,7 @@
         <v>861627041661131</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="9"/>
     </row>
@@ -6236,7 +6343,7 @@
         <v>861627041640499</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="9"/>
     </row>
@@ -6251,7 +6358,7 @@
         <v>868529042656073</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="9"/>
     </row>
@@ -6266,7 +6373,7 @@
         <v>868529042645035</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="9"/>
     </row>
@@ -6281,7 +6388,7 @@
         <v>861627041640119</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="9"/>
     </row>
@@ -6341,7 +6448,7 @@
         <v>868529042656073</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="9"/>
     </row>
@@ -6356,7 +6463,7 @@
         <v>868529042645035</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G72" s="9"/>
     </row>
@@ -6371,7 +6478,7 @@
         <v>861627041640119</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -9452,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10337,8 +10444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10392,7 +10499,7 @@
         <v>863726050515796</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10501,7 +10608,9 @@
       <c r="C11" s="5">
         <v>862539044962532</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -10513,7 +10622,9 @@
       <c r="C12" s="5">
         <v>862539044803173</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -10525,7 +10636,9 @@
       <c r="C13" s="5">
         <v>869092050394078</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -10537,7 +10650,9 @@
       <c r="C14" s="5">
         <v>863726050567359</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -10549,7 +10664,9 @@
       <c r="C15" s="5">
         <v>869092050395216</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -10562,7 +10679,7 @@
         <v>869092050394714</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10589,7 +10706,9 @@
       <c r="C18" s="5">
         <v>869092050394730</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -10601,7 +10720,9 @@
       <c r="C19" s="5">
         <v>869092050394979</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -10613,14 +10734,16 @@
       <c r="C20" s="5">
         <v>863726050564711</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="5">
         <v>863726050564190</v>
@@ -10634,7 +10757,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="5">
         <v>863726050564133</v>
@@ -10648,7 +10771,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5">
         <v>863726050499694</v>
@@ -10667,7 +10790,9 @@
       <c r="C24" s="5">
         <v>863726050567136</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -10680,7 +10805,7 @@
         <v>863726050521356</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10694,13 +10819,13 @@
         <v>863726050501234</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -10708,11 +10833,13 @@
       <c r="C27" s="5">
         <v>869092050393534</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>39</v>
@@ -10720,11 +10847,13 @@
       <c r="C28" s="5">
         <v>869092050394896</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
@@ -10732,7 +10861,9 @@
       <c r="C29" s="5">
         <v>863726050566955</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10865,7 +10996,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>39</v>
@@ -10879,7 +11010,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
@@ -10893,7 +11024,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>4</v>
@@ -10908,7 +11039,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>4</v>
@@ -11039,7 +11170,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5">
         <v>863726050564539</v>
@@ -11054,7 +11185,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="5">
         <v>863726050501713</v>
@@ -11068,7 +11199,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="5">
         <v>863726050552153</v>
@@ -11082,7 +11213,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="5">
         <v>863726050501812</v>
@@ -11229,7 +11360,9 @@
       <c r="C64" s="5">
         <v>869092050395299</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11242,38 +11375,44 @@
       <c r="C65" s="5">
         <v>863726050521075</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="18">
         <v>869092050395257</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="D66" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="18">
         <v>863726050500616</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="D67" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>39</v>
@@ -11281,12 +11420,14 @@
       <c r="C68" s="5">
         <v>869092050395034</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>39</v>
@@ -11294,12 +11435,14 @@
       <c r="C69" s="5">
         <v>869092050394854</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -11307,12 +11450,14 @@
       <c r="C70" s="5">
         <v>863726050560974</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -11320,33 +11465,39 @@
       <c r="C71" s="5">
         <v>863726050496856</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="18">
         <v>862539044803678</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="18">
         <v>869092050395430</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -11783,8 +11934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11871,7 +12022,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -11885,7 +12036,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -11899,7 +12050,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -11913,7 +12064,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -11927,7 +12078,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -11941,7 +12092,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>39</v>
@@ -11955,7 +12106,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>39</v>
@@ -11969,7 +12120,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>39</v>
@@ -11983,7 +12134,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>39</v>
@@ -11997,7 +12148,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>39</v>
@@ -12011,7 +12162,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -12033,7 +12184,9 @@
       <c r="C17" s="15">
         <v>861627040783696</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -12046,7 +12199,7 @@
         <v>863726050656798</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12060,7 +12213,7 @@
         <v>863726050679295</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12074,7 +12227,7 @@
         <v>863726050658455</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12088,12 +12241,12 @@
         <v>869092050430054</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>39</v>
@@ -12102,12 +12255,12 @@
         <v>869092050366217</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -12116,12 +12269,12 @@
         <v>868529042345511</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>9</v>
@@ -12130,12 +12283,12 @@
         <v>861627040819755</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
@@ -12144,12 +12297,12 @@
         <v>861627041261379</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
@@ -12158,13 +12311,13 @@
         <v>869092050395075</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -12173,12 +12326,12 @@
         <v>869092050395273</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -12187,7 +12340,7 @@
         <v>863726050560792</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -12201,7 +12354,7 @@
         <v>863726050663190</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="9"/>
     </row>
@@ -12216,7 +12369,7 @@
         <v>863726050657275</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -12230,7 +12383,7 @@
         <v>863726050664453</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -12245,7 +12398,7 @@
         <v>863726050652631</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="9"/>
     </row>
@@ -12260,7 +12413,7 @@
         <v>863726050663679</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12274,7 +12427,7 @@
         <v>863726050666854</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12288,7 +12441,7 @@
         <v>869092050429395</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12302,7 +12455,7 @@
         <v>869092050353199</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12316,7 +12469,7 @@
         <v>869092050429239</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -12330,12 +12483,12 @@
         <v>869092050429858</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
@@ -12344,12 +12497,12 @@
         <v>863726050664610</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>4</v>
@@ -12358,7 +12511,7 @@
         <v>863726050661772</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12371,7 +12524,9 @@
       <c r="C41" s="5">
         <v>862539045001850</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -12384,7 +12539,9 @@
       <c r="C42" s="5">
         <v>868529042015114</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -12397,7 +12554,9 @@
       <c r="C43" s="5">
         <v>861627041640259</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -12409,7 +12568,9 @@
       <c r="C44" s="5">
         <v>863726050668876</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -12421,7 +12582,9 @@
       <c r="C45" s="5">
         <v>863726050665336</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -12433,7 +12596,9 @@
       <c r="C46" s="5">
         <v>869092050395018</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -12445,7 +12610,9 @@
       <c r="C47" s="5">
         <v>869092050396651</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -12457,7 +12624,9 @@
       <c r="C48" s="5">
         <v>869092050429213</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -12469,7 +12638,9 @@
       <c r="C49" s="5">
         <v>869092050396479</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -12481,7 +12652,9 @@
       <c r="C50" s="5">
         <v>861627041661073</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -12494,7 +12667,9 @@
       <c r="C51" s="5">
         <v>863726050210232</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -13930,7 +14105,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22779,8 +22954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22889,6 +23064,9 @@
       <c r="C7" s="5">
         <v>862539044694259</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -22900,6 +23078,9 @@
       <c r="C8" s="5">
         <v>862539044406134</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -22911,6 +23092,9 @@
       <c r="C9" s="5">
         <v>862539044281131</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -22922,6 +23106,9 @@
       <c r="C10" s="8">
         <v>868529041424051</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -22933,6 +23120,9 @@
       <c r="C11" s="5">
         <v>861627041310390</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -22944,6 +23134,9 @@
       <c r="C12" s="5">
         <v>861627041450436</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -22983,6 +23176,9 @@
       <c r="C15" s="5">
         <v>862539044782658</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -22994,6 +23190,9 @@
       <c r="C16" s="5">
         <v>862539044281099</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -23004,6 +23203,9 @@
       </c>
       <c r="C17" s="5">
         <v>863726050307111</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -26463,8 +26665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26941,7 +27143,9 @@
       <c r="C33" s="5">
         <v>869092050041612</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -26953,7 +27157,9 @@
       <c r="C34" s="5">
         <v>861627041471978</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -26979,7 +27185,9 @@
       <c r="C36" s="5">
         <v>869092050098273</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -26991,7 +27199,9 @@
       <c r="C37" s="5">
         <v>862539044281651</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -27003,7 +27213,9 @@
       <c r="C38" s="5">
         <v>863726050307319</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -27015,7 +27227,9 @@
       <c r="C39" s="5">
         <v>863726050307319</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -27027,7 +27241,9 @@
       <c r="C40" s="5">
         <v>869092050039376</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -27039,7 +27255,9 @@
       <c r="C41" s="5">
         <v>869092050044152</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -27052,7 +27270,9 @@
       <c r="C42" s="5">
         <v>863726050307772</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -27065,7 +27285,9 @@
       <c r="C43" s="15">
         <v>869092050043337</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -27105,7 +27327,9 @@
       <c r="C46" s="5">
         <v>862539044402794</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -27117,7 +27341,9 @@
       <c r="C47" s="5">
         <v>869092050044335</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -27129,7 +27355,9 @@
       <c r="C48" s="5">
         <v>869092050043212</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -27185,7 +27413,9 @@
       <c r="C52" s="5">
         <v>862539044280612</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -27197,7 +27427,9 @@
       <c r="C53" s="5">
         <v>869092050044574</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -27209,7 +27441,9 @@
       <c r="C54" s="5">
         <v>862539044783755</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -27741,8 +27975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27781,7 +28015,9 @@
       <c r="C2" s="5">
         <v>861627041261650</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -27821,7 +28057,9 @@
       <c r="C5" s="5">
         <v>864997052663673</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -27833,7 +28071,9 @@
       <c r="C6" s="5">
         <v>864997052663814</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -27907,7 +28147,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
@@ -27915,7 +28155,9 @@
       <c r="C12" s="5">
         <v>864997052662816</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -28167,7 +28409,9 @@
       <c r="C30" s="15">
         <v>864997052654193</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -28180,7 +28424,7 @@
         <v>864997052664192</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -28210,7 +28454,7 @@
         <v>864997052663335</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -28224,7 +28468,7 @@
         <v>864997052663376</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -28238,7 +28482,7 @@
         <v>864997052663350</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -28932,7 +29176,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28971,7 +29215,9 @@
       <c r="C2" s="15">
         <v>868529042653310</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -28983,7 +29229,9 @@
       <c r="C3" s="5">
         <v>861627040747315</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -28995,7 +29243,9 @@
       <c r="C4" s="8">
         <v>864997052663137</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -29007,7 +29257,9 @@
       <c r="C5" s="8">
         <v>864997052664135</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -29047,11 +29299,13 @@
       <c r="C8" s="5">
         <v>864997052663491</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -29059,7 +29313,9 @@
       <c r="C9" s="5">
         <v>867872050061195</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -29085,7 +29341,9 @@
       <c r="C11" s="8">
         <v>864997052664119</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">

--- a/realme/April/Others/Entry_Imei-List - April.xlsx
+++ b/realme/April/Others/Entry_Imei-List - April.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="102">
   <si>
     <t>Retail Name</t>
   </si>
@@ -316,6 +316,39 @@
   </si>
   <si>
     <t>customer</t>
+  </si>
+  <si>
+    <t>Biswash Teleocm</t>
+  </si>
+  <si>
+    <t>Sopno Electronics</t>
+  </si>
+  <si>
+    <t>Dighi Teleocm</t>
+  </si>
+  <si>
+    <t>Borsha Computer</t>
+  </si>
+  <si>
+    <t>Ma Telecom</t>
+  </si>
+  <si>
+    <t>G-Store</t>
+  </si>
+  <si>
+    <t>zilani exclusive</t>
+  </si>
+  <si>
+    <t>Narzo30A</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>desh telecom</t>
+  </si>
+  <si>
+    <t>Kabir Telecom</t>
   </si>
 </sst>
 </file>
@@ -754,7 +787,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -3020,7 +3053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -4324,7 +4357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
@@ -5420,7 +5453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49:D52"/>
     </sheetView>
   </sheetViews>
@@ -9559,7 +9592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -10444,7 +10477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
@@ -11934,7 +11967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -14105,7 +14138,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14989,8 +15022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15020,236 +15053,540 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867872050082530</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092050392890</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092050396610</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092050396099</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092050395976</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050429338</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861627040779595</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>862539044803413</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092050396339</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>862539043973894</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092050396578</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092050396354</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092050396271</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861627041660737</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>862539044803132</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>862539043978331</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>862539044727919</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>862539044684631</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>862539043980717</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
+        <v>862539044728016</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050366258</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092050396594</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092050396370</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092050278636</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5">
+        <v>861627041260793</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092050396172</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="15">
+        <v>862539043979339</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15">
+        <v>862539044803611</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092050396297</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092050396156</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867872050083892</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5">
+        <v>861627041261072</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092050396412</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092050366399</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868529042645076</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092050366456</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092050396537</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092050366498</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -15866,6 +16203,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C39">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15875,7 +16215,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15905,94 +16245,214 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>862539043346018</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092050529970</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>861627041341775</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867872050172554</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868529042796895</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15">
+        <v>869092050530499</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050528493</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092050528337</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092050512679</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092050521258</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092050533212</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092050533352</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>862539044803777</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867872050171358</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868529042774710</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -16751,6 +17211,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C15">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16760,7 +17223,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17642,22 +18105,26 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -17675,457 +18142,1029 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868529042648252</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868529042013234</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5">
+        <v>863726050552930</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863726050560511</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5">
+        <v>863726050574934</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863726050540414</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="5">
+        <v>863726050554910</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="5">
+        <v>863726050536990</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5">
+        <v>863726050536479</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="5">
+        <v>863726050552971</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>862539045003310</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>862539044802639</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>862539044683351</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>862539044683591</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="5">
+        <v>863726050563697</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="5">
+        <v>863726050564638</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="5">
+        <v>863726050564356</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="5">
+        <v>863726050562855</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5">
+        <v>863726050566773</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5">
+        <v>863726050561857</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="5">
+        <v>863726050562376</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="5">
+        <v>863726050553318</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="5">
+        <v>863726050562616</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="5">
+        <v>863726050552179</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="5">
+        <v>863726050561774</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="5">
+        <v>862539044686958</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5">
+        <v>862539044683674</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5">
+        <v>862539044683633</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="5">
+        <v>862539044686297</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="5">
+        <v>862539044686537</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868529042139278</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868529042013515</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868529042799113</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868529042794452</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868529042892512</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5">
+        <v>863726050573613</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5">
+        <v>863726050563093</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="5">
+        <v>863726050564778</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5">
+        <v>863726050575311</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="5">
+        <v>863726050565650</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="5">
+        <v>863726050575535</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="5">
+        <v>863726050563812</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="5">
+        <v>863726050565718</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="5">
+        <v>863726050574595</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="5">
+        <v>863726050575618</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5">
+        <v>863726050538376</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="8">
+        <v>863726050457197</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="5">
+        <v>863726050543517</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="5">
+        <v>863726050535331</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="5">
+        <v>863726050541230</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="5">
+        <v>868529042797034</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5">
+        <v>862539044681934</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="5">
+        <v>862539044681652</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5">
+        <v>862539044682213</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5">
+        <v>862539044682098</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="5">
+        <v>862539044682353</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="5">
+        <v>862539044682114</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5">
+        <v>862539044682312</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5">
+        <v>862539044682593</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5">
+        <v>862539044676272</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5">
+        <v>862539044682031</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869092050619375</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869092050663613</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869092050396032</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869092050281093</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5">
+        <v>862539044803538</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="5">
+        <v>862539045004615</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="5">
+        <v>863726050414511</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -18290,7 +19329,6 @@
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
@@ -18500,7 +19538,7 @@
       <c r="C186" s="9"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -18517,10 +19555,10 @@
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:D62">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22954,7 +23992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -24790,7 +25828,7 @@
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26665,7 +27703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D51" sqref="D51:D54"/>
     </sheetView>
   </sheetViews>
@@ -27975,7 +29013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:C35"/>
     </sheetView>
   </sheetViews>

--- a/realme/April/Others/Entry_Imei-List - April.xlsx
+++ b/realme/April/Others/Entry_Imei-List - April.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="113">
   <si>
     <t>Retail Name</t>
   </si>
@@ -349,6 +349,39 @@
   </si>
   <si>
     <t>Kabir Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma-Moni </t>
+  </si>
+  <si>
+    <t>Shathi Computer</t>
+  </si>
+  <si>
+    <t>Ma Germents</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi Brand</t>
+  </si>
+  <si>
+    <t>Arham Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Sound </t>
+  </si>
+  <si>
+    <t>Friends Mobile</t>
+  </si>
+  <si>
+    <t>Barsha Telecom</t>
+  </si>
+  <si>
+    <t>c25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuhin Mobile </t>
+  </si>
+  <si>
+    <t>Return</t>
   </si>
 </sst>
 </file>
@@ -787,7 +820,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1772,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,7 +3087,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,7 +4391,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,7 +5487,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:D52"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10477,8 +10510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11967,8 +12000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15022,8 +15055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16215,7 +16248,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18107,8 +18140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19119,131 +19152,252 @@
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="5">
+        <v>868529042798891</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
+      <c r="A71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="5">
+        <v>863726050574116</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
+      <c r="A72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="5">
+        <v>868529042895812</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
+      <c r="A73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="5">
+        <v>868529042798479</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
+      <c r="A74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="5">
+        <v>863726050574454</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
+      <c r="A75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="5">
+        <v>863726050574736</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+      <c r="A76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869092050521050</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="5">
+        <v>868529042894872</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="5">
+        <v>863726050574835</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="5">
+        <v>869092050536850</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="5">
+        <v>869092050670576</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="5">
+        <v>869092050366357</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -19568,7 +19722,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19598,218 +19752,498 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092050532479</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092050533592</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>862539043974439</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>862539044803579</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5">
+        <v>863726050551296</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863726050565031</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050707733</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="5">
+        <v>863726050554076</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868529042647635</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092050708111</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8">
+        <v>863726050546858</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868529042794353</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092050653374</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868529042139757</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="5">
+        <v>863726050564273</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861627040622217</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867872050166697</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868529042013598</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5">
+        <v>863726050551353</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5">
+        <v>863726050567656</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050706990</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868529042896091</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="5">
+        <v>863726050565338</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868529041852350</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="5">
+        <v>863726050574637</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092050704110</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5">
+        <v>862539044728230</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868529042794536</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="9">
+        <v>863726050573951</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868529041805150</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868529042015155</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5">
+        <v>863726050535893</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="5">
+        <v>863726050541438</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="5">
+        <v>863726050575097</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868529041852376</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -20426,25 +20860,29 @@
       <c r="C187" s="9"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
+      <c r="C193" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D36">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20453,13 +20891,13 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -20483,358 +20921,810 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050395672</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050391390</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050392216</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050393537</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050396035</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694050393214</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694050387190</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050279538</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050279751</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694050277276</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694050281179</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694050279777</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050279793</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050280973</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050386879</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050100955</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>861180050064318</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>861180050065497</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15">
+        <v>861180050100195</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694050271816</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694050382993</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694050279819</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050383090</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694050281039</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694050296995</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694050395334</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694050395953</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050100799</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050387836</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694050298637</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694050386838</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050293711</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5">
+        <v>867872050082159</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694050295377</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869694050389618</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092050703815</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869694050297076</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869094050384890</v>
+      </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694050388099</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092050819694</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5">
+        <v>861627041660794</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694050382498</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869694050383595</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5">
+        <v>863726050554274</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="5">
+        <v>868529042793991</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694050377472</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="5">
+        <v>868529041851550</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5">
+        <v>863726050574074</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="5">
+        <v>867872050087877</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092050819678</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092050819371</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092050818274</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092050819512</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092050819330</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="5">
+        <v>861627041660638</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092050818019</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092050819215</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -21329,6 +22219,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A35:D58">
+    <sortCondition ref="A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22223,7 +23116,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23992,8 +24885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24943,7 +25836,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25828,7 +26721,7 @@
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26810,7 +27703,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27704,7 +28597,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D54"/>
+      <selection activeCell="A37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29013,8 +29906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30214,7 +31107,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31246,7 +32139,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/April/Others/Entry_Imei-List - April.xlsx
+++ b/realme/April/Others/Entry_Imei-List - April.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="10" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="124">
   <si>
     <t>Retail Name</t>
   </si>
@@ -382,6 +382,39 @@
   </si>
   <si>
     <t>Return</t>
+  </si>
+  <si>
+    <t>c25/64</t>
+  </si>
+  <si>
+    <t>Desh Teleocm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Zilani Mobile</t>
+  </si>
+  <si>
+    <t>Narzo30a</t>
+  </si>
+  <si>
+    <t>Pre-OK</t>
+  </si>
+  <si>
+    <t>Hriddro Mobile</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Pre-Ok</t>
+  </si>
+  <si>
+    <t>Pre_Ok</t>
+  </si>
+  <si>
+    <t>M.K Telecom</t>
   </si>
 </sst>
 </file>
@@ -12000,8 +12033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20890,8 +20923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21728,118 +21761,317 @@
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5">
+        <v>862539044683013</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5">
+        <v>862539044686313</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092050521191</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092050701850</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869694050381698</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869694050384031</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869694050377290</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="4">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5">
+        <v>861180050096195</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869694050383355</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="5">
+        <v>863726050548359</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="5">
+        <v>863726050574397</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5">
+        <v>863726050564695</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869694050382837</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869694050380195</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869694050377019</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5">
+        <v>862539043979172</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="5">
+        <v>869092050707774</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869092050520730</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="5">
+        <v>868529042894476</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869694050376771</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
@@ -22228,10 +22460,1069 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5">
+        <v>867872050087455</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>863726050573738</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050294073</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050296334</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050294776</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861627041261130</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050062254</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050300318</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050300235</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="5">
+        <v>86969405037633</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050061892</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694050297332</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9">
+        <v>869092050710075</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050297951</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="8">
+        <v>869694050296391</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050819470</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050296318</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>863726050573530</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694050299312</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694050298934</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694050295997</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D23">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22261,337 +23552,769 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050304773</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050449610</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050305796</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050449032</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050299734</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694050303254</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050064219</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092050807038</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>868529042889138</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861627041640218</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694050449016</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694050449172</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050451277</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050450758</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050445790</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050807012</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050305192</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694050451657</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694050447853</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694050448257</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>861627041450196</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694050445733</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050445758</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867872050070550</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694050448653</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694050451475</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694050449271</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694050451418</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050448752</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694050277912</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694050305952</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050299197</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694050305911</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694050298199</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869694050448232</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694050449198</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869694050448950</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869694050450931</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694050451897</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869694050445212</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869694050445873</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694050445337</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869694050449115</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694050446970</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694050445113</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694050448810</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050448455</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694050445535</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694050447473</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5">
+        <v>862539044728990</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092050710414</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="5">
+        <v>86964050445253</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5">
+        <v>863726050574512</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869694050445279</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -23107,16 +24830,19 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D24">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23146,154 +24872,350 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="8">
+        <v>863726050566138</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867872050086697</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050447218</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050445972</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867827050085418</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694050447531</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050298215</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050304419</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694050297175</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694050447234</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868529042783810</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868529042803857</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050445097</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092050806998</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050807392</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092050708194</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092050632972</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092050819298</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867872050079759</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868529042703115</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092050805990</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050447051</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>862539045003153</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092050807095</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -23992,891 +25914,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
+  <sortState ref="A2:D24">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/April/Others/Entry_Imei-List - April.xlsx
+++ b/realme/April/Others/Entry_Imei-List - April.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="10" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="2" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="124">
   <si>
     <t>Retail Name</t>
   </si>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20923,8 +20923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22463,7 +22463,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23521,7 +23521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -24842,7 +24842,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26875,8 +26875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26906,62 +26906,126 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050603810</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050603737</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050604610</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050605799</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050605534</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694050603331</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>

--- a/realme/April/Others/Entry_Imei-List - April.xlsx
+++ b/realme/April/Others/Entry_Imei-List - April.xlsx
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4423,8 +4423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,7 +7003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -7888,7 +7888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:D22"/>
     </sheetView>
   </sheetViews>
@@ -8773,7 +8773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
@@ -10543,8 +10543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12034,7 +12034,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15089,7 +15089,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16281,7 +16281,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18173,8 +18173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19080,91 +19080,91 @@
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="15">
         <v>869092050619375</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="15">
         <v>869092050663613</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="15">
         <v>869092050396032</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="15">
         <v>869092050281093</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="15">
         <v>862539044803538</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="15">
         <v>862539045004615</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G68" s="9"/>
@@ -19754,8 +19754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20923,8 +20923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22463,7 +22463,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23521,8 +23521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24841,8 +24841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25926,7 +25926,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26876,7 +26876,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27825,7 +27825,7 @@
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28807,7 +28807,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29700,8 +29700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31010,8 +31010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32211,7 +32211,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
